--- a/Enfermeria/HORARIOS ENFERMERIA_1997.xlsx
+++ b/Enfermeria/HORARIOS ENFERMERIA_1997.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OmairaTapias\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{44509F4D-F453-47EC-A6EF-1BCDD76CFA9C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4699FCA3-C2CD-4AF7-9B4D-4407D65AF620}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="7" xr2:uid="{52CD51E4-B5E7-4EE9-97B5-A271D95154C6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" activeTab="1" xr2:uid="{52CD51E4-B5E7-4EE9-97B5-A271D95154C6}"/>
   </bookViews>
   <sheets>
     <sheet name="II" sheetId="2" r:id="rId1"/>
@@ -1002,7 +1002,7 @@
   <dimension ref="A3:S21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1445,8 +1445,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9B34897-C3CC-413D-A044-78825B535787}">
   <dimension ref="A3:R21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6972,8 +6972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D77BECE-C5E5-4AC8-A998-3520FF4F3F8F}">
   <dimension ref="A3:S41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L32" sqref="L32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7113,7 +7113,7 @@
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
-      <c r="O7" s="8" t="s">
+      <c r="O7" s="32" t="s">
         <v>49</v>
       </c>
       <c r="P7" s="8">
